--- a/medicine/Mort/Décès_en_1923/Décès_en_1923.xlsx
+++ b/medicine/Mort/Décès_en_1923/Décès_en_1923.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1923</t>
+          <t>Décès_en_1923</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1923</t>
+          <t>Décès_en_1923</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,8 +540,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Inconnu
-Natale Attanasio, peintre italien (° 24 décembre 1845).
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Natale Attanasio, peintre italien (° 24 décembre 1845).
 Joseph Chiffonny, peintre français (° 1857).
 Emilio Gola, peintre italien (° 1851).
 Iwill (Marie-Joseph Léon Clavel), peintre français (° 28 août 1850).
@@ -539,17 +556,86 @@
 Henry R. Rose, homme politique américain (° 1856).
 Après 1923 :
 Ernest-Pascal Blanchard, peintre et vitrailliste français (° 31 mars 1861).
-Janvier
-3 janvier :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_1923</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1923</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>3 janvier :
 Jaroslav Hašek, écrivain Tchécoslovaquie (° 30 avril 1883).
 Jules Tiberghien, prélat catholique français, archevêque titulaire de Nicée († 8 décembre 1867).
 9 janvier : Katherine Mansfield, écrivain néo-zélandais (° 14 octobre 1888).
 18 janvier : Alfred Cottin, guitariste, mandoliniste et compositeur français (° 21 décembre 1863).
 22 janvier : Marius Plateau, ingénieur, sergent  français lors de la Première Guerre mondiale (° 1886).
 28 janvier : Paul Philippoteaux, peintre français (° 28 janvier 1846).
-31 janvier : Eligiusz Niewiadomski, peintre moderniste et critique d'art polonais (° 1er décembre 1869).
-Février
-3 février : Carola Sorg, peintre française (° 15 février 1833).
+31 janvier : Eligiusz Niewiadomski, peintre moderniste et critique d'art polonais (° 1er décembre 1869).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_1923</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1923</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>3 février : Carola Sorg, peintre française (° 15 février 1833).
 4 février : Fanny Fleury, peintre française (° 11 août 1846).
 6 février : Louis Haas, peintre orientaliste français (° 19 août 1870).
 10 février : Wilhelm Conrad Röntgen, physicien allemand (° 27 mars 1845).
@@ -562,9 +648,43 @@
 20 février : Thomas George Roddick, médecin et député fédéral du Québec (° 31 juillet 1846).
 22 février : Marie-Élisabeth de Saxe-Meiningen, musicienne et compositrice allemande (° 23 septembre 1853).
 24 février : Heinrich Yorck von Wartenburg, homme politique allemand (° 16 octobre 1861).
-28 février : François Flameng, peintre, graveur et illustrateur français (° 6 décembre 1856).
-Mars
-1er mars : Ruy Barbosa de Oliveira, écrivain, juriste et homme politique brésilien (° 5 novembre 1849).
+28 février : François Flameng, peintre, graveur et illustrateur français (° 6 décembre 1856).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_1923</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1923</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1er mars : Ruy Barbosa de Oliveira, écrivain, juriste et homme politique brésilien (° 5 novembre 1849).
 2 mars : Joseph Martin, premier ministre de la Colombie Britannique (° 24 septembre 1852).
 3 mars : Georg von Rosen, peintre suédois (° 13 février 1843).
 5 mars :
@@ -572,9 +692,43 @@
 Dora Pejačević, compositrice croate (° 10 septembre 1885).
 22 mars : Jeanne Granès, peintre, dessinatrice, lithographe, enseignante et militante féministe française (° 11 juin 1870).
 26 mars : Sarah Bernhardt, actrice française (° 25 septembre 1844).
-27 mars : Ernst Reiterer, compositeur d'opérettes et chef d'orchestre autrichien (° 27 avril 1851).
-Avril
-5 avril : Lord Carnarvon, égyptologue britannique (° 26 juin 1866).
+27 mars : Ernst Reiterer, compositeur d'opérettes et chef d'orchestre autrichien (° 27 avril 1851).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_1923</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1923</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>5 avril : Lord Carnarvon, égyptologue britannique (° 26 juin 1866).
 9 avril : Jeanne Amen, peintre française (° 1863).
 13 avril :
 Aimé Uriot, peintre art nouveau français (° 23 juillet 1852).
@@ -587,16 +741,84 @@
 25 avril : Louis-Olivier Taillon, premier ministre du Québec (° 26 septembre 1840).
 28 avril : Émile-Louis Minet, peintre français (° 14 mars 1841).
 29 avril : Gustave Fraipont, peintre, sculpteur, illustrateur et affichiste français d'origine belge (° 9 mai 1849).
-? avril : Fred Goodwins, acteur britannique (° 26 février 1891).
-Mai
-15 mai :
+? avril : Fred Goodwins, acteur britannique (° 26 février 1891).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_1923</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1923</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>15 mai :
 Arthur Gordon Webster, physicien américain qui a fondé l'American Physical Society (° 28 novembre 1863).
 21 mai :  Charles Kent, acteur, scénariste, réalisateur et producteur britannique naturalisé américain (° 18 juin 1852).
 30 mai :
 Mélanie Chasselon, compositrice française (° 2 septembre 1845).
-Camille Chevillard, compositeur et chef d'orchestre français (° 14 octobre 1859).
-Juin
-5 juin : George Hendrik Breitner, peintre néerlandais (° 12 septembre 1857).
+Camille Chevillard, compositeur et chef d'orchestre français (° 14 octobre 1859).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_1923</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1923</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>5 juin : George Hendrik Breitner, peintre néerlandais (° 12 septembre 1857).
 9 juin :
 Émile Petit, professeur de piano, organiste et compositeur français (° 19 juillet 1846).
 Arishima Takeo, écrivain japonais (° 4 mars 1878).
@@ -606,9 +828,43 @@
 17 juin : Paul Cornoyer, peintre impressionniste américain (° 15 août 1864).
 24 juin : Edith Södergran, poétesse finlandaise d’expression suédoise (° 4 avril 1892).
 29 juin : Gustave Kerker, compositeur et chef d'orchestre allemand (° 28 février 1857).
-30 juin : Claude Terrasse, compositeur français d'opéras et d'opérettes (° 27 janvier 1867).
-Juillet
-12 juillet : Harry Lonsdale, acteur anglais (° 6 décembre 1865).
+30 juin : Claude Terrasse, compositeur français d'opéras et d'opérettes (° 27 janvier 1867).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_1923</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1923</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>12 juillet : Harry Lonsdale, acteur anglais (° 6 décembre 1865).
 13 juillet :
 Louis Ganne, compositeur français (° 5 avril 1862).
 Asger Hamerik, compositeur danois (° 8 avril 1843).
@@ -619,25 +875,127 @@
 23 juillet :
 Eugène Chigot, peintre français (° 22 novembre 1860).
 Pancho Villa, révolutionnaire mexicain (° 5 juin 1878).
-30 juillet : Charles Hawtrey, acteur, dramaturge et directeur de théâtre anglais (° 21 septembre 1858).
-Août
-2 août : Warren G. Harding, Président des États-Unis (° 2 novembre 1865).
+30 juillet : Charles Hawtrey, acteur, dramaturge et directeur de théâtre anglais (° 21 septembre 1858).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_1923</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1923</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2 août : Warren G. Harding, Président des États-Unis (° 2 novembre 1865).
 6 août : Benjamin Sulte, journaliste, traducteur, essayiste, poète, critique littéraire, militaire et historien canadien (° 17 septembre 1841).
 10 août : Joaquín Sorolla y Bastida, peintre espagnol (° 27 février 1863).
 18 août : Gaston van de Werve et de Schilde, homme politique belge (° 22 mars 1867).
 19 août : Vilfredo Pareto, sociologue et économiste italien (° 15 juillet 1848).
-21 août : William Ralph Meredith, chef du Parti conservateur de l'Ontario (° 31 mars 1840).
-Septembre
-10 septembre : Léo-Paul Robert, peintre suisse (° 19 mars 1851).
+21 août : William Ralph Meredith, chef du Parti conservateur de l'Ontario (° 31 mars 1840).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_1923</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1923</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>10 septembre : Léo-Paul Robert, peintre suisse (° 19 mars 1851).
 15 septembre : Gabriel Guay, peintre d'histoire français (° 15 octobre 1848).
 18 septembre : Léo Coti, footballeur français (° 18 février 1894).
 19 septembre : Pierre Berriat, peintre français (° 27 janvier 1866).
 21 septembre :
 Félix Lacaille, peintre, dessinateur et illustrateur français (° 27 février 1856).
 Fidel Pagés, médecin espagnol (° 26 janvier 1886).
-28 septembre : Ferdinand Hannouche, vice-chancelier de l’empire d’Autriche-Hongrie (° 9 novembre 1866).
-Octobre
-1er octobre : Nelson W. Fisk, homme d'affaires et homme politique américain (° 5 août 1854).
+28 septembre : Ferdinand Hannouche, vice-chancelier de l’empire d’Autriche-Hongrie (° 9 novembre 1866).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_1923</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1923</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1er octobre : Nelson W. Fisk, homme d'affaires et homme politique américain (° 5 août 1854).
 5 octobre : Alekseï Stepanov, peintre russe puis soviétique (° 6 mai 1858).
 7 octobre : Hendrikus Matheus Horrix, peintre néerlandais (° 30 mai 1845).
 9 octobre : Henry Markham, homme politique américain (° 16 novembre 1840).
@@ -645,12 +1003,80 @@
 24 octobre : Ruggero Panerai, peintre italien (° 19 mars 1862).
 29 octobre : Rougena Zátková, peintre et sculptrice austro-hongroise puis tchécoslovaque (° 2 mars 1885 ou 15 mars 1885).
 30 octobre : Andrew Bonar Law, premier ministre du Royaume-Uni (° 16 septembre 1858).
-? octobre : Justin J. Gabriel, graveur et peintre français (° 29 octobre 1838).
-Novembre
-2 novembre : Stevan Aleksić, peintre serbe (° 23 décembre 1876).
-25 novembre : Gustave Courtois, peintre français (° 18 mai 1852).
-Décembre
-2 décembre : Tomás Bretón, compositeur, chef d'orchestre et violoniste espagnol (° 29 décembre 1850).
+? octobre : Justin J. Gabriel, graveur et peintre français (° 29 octobre 1838).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_1923</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1923</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2 novembre : Stevan Aleksić, peintre serbe (° 23 décembre 1876).
+25 novembre : Gustave Courtois, peintre français (° 18 mai 1852).</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Décès_en_1923</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1923</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2 décembre : Tomás Bretón, compositeur, chef d'orchestre et violoniste espagnol (° 29 décembre 1850).
 4 décembre : Daniel Dourouze,  peintre français (° 21 mars 1874).
 5 décembre :
 Maurice Barrès, écrivain français (° 19 août 1862).
